--- a/project7/forecast_produce_sales_segment1.xlsx
+++ b/project7/forecast_produce_sales_segment1.xlsx
@@ -387,19 +387,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>8607906.02219977</v>
+        <v>259752.536700512</v>
       </c>
       <c r="D2" s="0">
-        <v>9680172.23996084</v>
+        <v>281922.012947309</v>
       </c>
       <c r="E2" s="0">
-        <v>9309023.21664391</v>
+        <v>274248.378060604</v>
       </c>
       <c r="F2" s="0">
-        <v>7906788.82775562</v>
+        <v>245256.69534042</v>
       </c>
       <c r="G2" s="0">
-        <v>7535639.80443869</v>
+        <v>237583.060453715</v>
       </c>
     </row>
     <row r="3">
@@ -410,19 +410,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>8221744.34107451</v>
+        <v>251989.722981694</v>
       </c>
       <c r="D3" s="0">
-        <v>9525582.24336502</v>
+        <v>277370.710163781</v>
       </c>
       <c r="E3" s="0">
-        <v>9074278.12132604</v>
+        <v>268585.458472162</v>
       </c>
       <c r="F3" s="0">
-        <v>7369210.56082298</v>
+        <v>235393.987491225</v>
       </c>
       <c r="G3" s="0">
-        <v>6917906.438784</v>
+        <v>226608.735799606</v>
       </c>
     </row>
     <row r="4">
@@ -433,19 +433,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>9582767.56635523</v>
+        <v>292942.357805024</v>
       </c>
       <c r="D4" s="0">
-        <v>11135739.6410903</v>
+        <v>326352.862188839</v>
       </c>
       <c r="E4" s="0">
-        <v>10598201.4260191</v>
+        <v>314788.312392175</v>
       </c>
       <c r="F4" s="0">
-        <v>8567333.70669133</v>
+        <v>271096.403217873</v>
       </c>
       <c r="G4" s="0">
-        <v>8029795.49162018</v>
+        <v>259531.853421208</v>
       </c>
     </row>
     <row r="5">
@@ -456,19 +456,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>8902207.95327664</v>
+        <v>277055.486191765</v>
       </c>
       <c r="D5" s="0">
-        <v>10654767.6986965</v>
+        <v>311960.756977041</v>
       </c>
       <c r="E5" s="0">
-        <v>10048145.1761896</v>
+        <v>299878.815994494</v>
       </c>
       <c r="F5" s="0">
-        <v>7756270.73036364</v>
+        <v>254232.156389037</v>
       </c>
       <c r="G5" s="0">
-        <v>7149648.20785674</v>
+        <v>242150.21540649</v>
       </c>
     </row>
     <row r="6">
@@ -479,19 +479,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>10281366.7171333</v>
+        <v>315137.539827499</v>
       </c>
       <c r="D6" s="0">
-        <v>12217089.1940061</v>
+        <v>358277.584917803</v>
       </c>
       <c r="E6" s="0">
-        <v>11547067.6127946</v>
+        <v>343345.299132892</v>
       </c>
       <c r="F6" s="0">
-        <v>9015665.82147194</v>
+        <v>286929.780522106</v>
       </c>
       <c r="G6" s="0">
-        <v>8345644.24026041</v>
+        <v>271997.494737194</v>
       </c>
     </row>
     <row r="7">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>10315054.6914209</v>
+        <v>320711.544772731</v>
       </c>
       <c r="D7" s="0">
-        <v>12416883.3711877</v>
+        <v>367855.886465407</v>
       </c>
       <c r="E7" s="0">
-        <v>11689366.5952663</v>
+        <v>351537.572893343</v>
       </c>
       <c r="F7" s="0">
-        <v>8940742.78757554</v>
+        <v>289885.516652119</v>
       </c>
       <c r="G7" s="0">
-        <v>8213226.01165416</v>
+        <v>273567.203080055</v>
       </c>
     </row>
     <row r="8">
@@ -525,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>10064658.2014076</v>
+        <v>321350.759292527</v>
       </c>
       <c r="D8" s="0">
-        <v>12320728.3350739</v>
+        <v>371629.614500432</v>
       </c>
       <c r="E8" s="0">
-        <v>11539823.1710624</v>
+        <v>354226.335636651</v>
       </c>
       <c r="F8" s="0">
-        <v>8589493.23175284</v>
+        <v>288475.182948402</v>
       </c>
       <c r="G8" s="0">
-        <v>7808588.06774131</v>
+        <v>271071.904084621</v>
       </c>
     </row>
     <row r="9">
@@ -548,19 +548,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>8985247.22987548</v>
+        <v>282003.197635088</v>
       </c>
       <c r="D9" s="0">
-        <v>11385571.5077506</v>
+        <v>328643.360015535</v>
       </c>
       <c r="E9" s="0">
-        <v>10554734.914542</v>
+        <v>312499.560623076</v>
       </c>
       <c r="F9" s="0">
-        <v>7415759.54520893</v>
+        <v>251506.834647099</v>
       </c>
       <c r="G9" s="0">
-        <v>6584922.95200034</v>
+        <v>235363.03525464</v>
       </c>
     </row>
     <row r="10">
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>7829629.39310401</v>
+        <v>245135.56044965</v>
       </c>
       <c r="D10" s="0">
-        <v>10366044.9671859</v>
+        <v>287756.019509858</v>
       </c>
       <c r="E10" s="0">
-        <v>9488102.39336131</v>
+        <v>273003.580711082</v>
       </c>
       <c r="F10" s="0">
-        <v>6171156.39284671</v>
+        <v>217267.540188218</v>
       </c>
       <c r="G10" s="0">
-        <v>5293213.81902209</v>
+        <v>202515.101389442</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>7957772.21076089</v>
+        <v>239343.691351815</v>
       </c>
       <c r="D11" s="0">
-        <v>10623331.6590717</v>
+        <v>282892.845437558</v>
       </c>
       <c r="E11" s="0">
-        <v>9700687.8515483</v>
+        <v>267818.952650978</v>
       </c>
       <c r="F11" s="0">
-        <v>6214856.56997347</v>
+        <v>210868.430052652</v>
       </c>
       <c r="G11" s="0">
-        <v>5292212.76245011</v>
+        <v>195794.537266072</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>8290248.29903959</v>
+        <v>251146.856964712</v>
       </c>
       <c r="D12" s="0">
-        <v>11078979.9064016</v>
+        <v>298789.678596372</v>
       </c>
       <c r="E12" s="0">
-        <v>10113701.8856815</v>
+        <v>282298.823598091</v>
       </c>
       <c r="F12" s="0">
-        <v>6466794.71239767</v>
+        <v>219994.890331332</v>
       </c>
       <c r="G12" s="0">
-        <v>5501516.69167754</v>
+        <v>203504.035333051</v>
       </c>
     </row>
     <row r="13">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>7998026.02182082</v>
+        <v>256375.940191033</v>
       </c>
       <c r="D13" s="0">
-        <v>10904714.2734957</v>
+        <v>306920.66738509</v>
       </c>
       <c r="E13" s="0">
-        <v>9898607.31253172</v>
+        <v>289425.360882694</v>
       </c>
       <c r="F13" s="0">
-        <v>6097444.73110993</v>
+        <v>223326.519499371</v>
       </c>
       <c r="G13" s="0">
-        <v>5091337.77014598</v>
+        <v>205831.212996975</v>
       </c>
     </row>
   </sheetData>
